--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{123BC5ED-1F39-470A-91B8-F16EC94A3FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD713245-732B-4D87-97FE-480D60607A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="3197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="3199">
   <si>
     <t>word</t>
   </si>
@@ -9611,6 +9611,12 @@
   </si>
   <si>
     <t>fall</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>sūga</t>
   </si>
 </sst>
 </file>
@@ -10592,11 +10598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1615"/>
+  <dimension ref="A1:G1616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A525" sqref="A525"/>
+      <pane ySplit="1" topLeftCell="A1588" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1606" sqref="C1606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24989,6 +24995,23 @@
     <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
         <v>3187</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{71406D46-F9A4-42BD-A1DD-D585CA3357CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4426C59-56CF-43F1-8F0E-61CAB144C813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="345" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_data" sheetId="1" r:id="rId1"/>
@@ -10656,7 +10656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C558" sqref="C558"/>
+      <selection pane="bottomLeft" activeCell="A546" sqref="A546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4426C59-56CF-43F1-8F0E-61CAB144C813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024161BD-73E9-475F-84FC-953CB3680C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="345" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10656,7 +10656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A546" sqref="A546"/>
+      <selection pane="bottomLeft" activeCell="B544" sqref="B544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF934AB-6307-419A-AC73-E5F1B1C96096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{202B86CE-FDF2-495F-B976-5655F76368A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="345" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD21F327-E8A5-4798-9AE7-F05C7D020CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0B067-1C36-47A3-951F-6A1F889BA3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10785" yWindow="3675" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="3236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="3238">
   <si>
     <t>word</t>
   </si>
@@ -9739,6 +9739,12 @@
   </si>
   <si>
     <t>non living thing</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>wal</t>
   </si>
 </sst>
 </file>
@@ -10649,11 +10655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1632"/>
+  <dimension ref="A1:G1633"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1015" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1042" sqref="C1042"/>
+      <pane ySplit="1" topLeftCell="A1604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1632" sqref="E1632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25334,6 +25340,17 @@
         <v>3161</v>
       </c>
       <c r="C1632" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C1633" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0B067-1C36-47A3-951F-6A1F889BA3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F4763-4860-4816-BFD0-DF218D9EFBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="3238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="3257">
   <si>
     <t>word</t>
   </si>
@@ -9746,12 +9746,89 @@
   <si>
     <t>wal</t>
   </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>pon&lt;br&gt;pon.u</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>kotojik</t>
+  </si>
+  <si>
+    <t>sēboko</t>
+  </si>
+  <si>
+    <t>kîsha (business)&lt;br&gt;binoîda (person/friend)</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>sis</t>
+  </si>
+  <si>
+    <t>puroga&lt;br&gt;puroga.ru</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>leb</t>
+  </si>
+  <si>
+    <t>cardboard</t>
+  </si>
+  <si>
+    <t>kakko</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9888,6 +9965,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -10655,11 +10738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1633"/>
+  <dimension ref="A1:G1643"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1632" sqref="E1632"/>
+      <pane ySplit="1" topLeftCell="A1624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1640" sqref="A1640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25351,6 +25434,116 @@
         <v>3237</v>
       </c>
       <c r="C1633" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C1643" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F4763-4860-4816-BFD0-DF218D9EFBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E42CF4-AE36-4A00-A658-7E9E62E3C93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2655" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="3257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3842" uniqueCount="3260">
   <si>
     <t>word</t>
   </si>
@@ -9822,6 +9822,15 @@
   </si>
   <si>
     <t>kakko</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>gîpe</t>
+  </si>
+  <si>
+    <t>tendon</t>
   </si>
 </sst>
 </file>
@@ -10738,11 +10747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1643"/>
+  <dimension ref="A1:G1645"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1624" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1640" sqref="A1640"/>
+      <selection pane="bottomLeft" activeCell="B1647" sqref="B1647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25544,6 +25553,28 @@
         <v>3256</v>
       </c>
       <c r="C1643" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C1645" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33380B82-D4F1-4C56-B55F-525EA9BC7A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCD4A6E-37DD-4BF8-B222-7E0CDD01F4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2070" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_data" sheetId="1" r:id="rId1"/>
@@ -10808,8 +10808,8 @@
   <dimension ref="A1:G1649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1623" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1651" sqref="B1651"/>
+      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1008" sqref="D1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5022FC81-EF5E-4C37-B55E-51664B19E6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4BA858-1BF1-49BF-B247-E0D075206523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="3921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4593" uniqueCount="3923">
   <si>
     <t>word</t>
   </si>
@@ -11811,6 +11811,12 @@
   </si>
   <si>
     <t>pharynx</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>nala</t>
   </si>
 </sst>
 </file>
@@ -12821,11 +12827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2003"/>
+  <dimension ref="A1:G2004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1775" sqref="C1775"/>
+      <pane ySplit="1" topLeftCell="A1998" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2010" sqref="C2010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30615,6 +30621,14 @@
       </c>
       <c r="B2003" s="2" t="s">
         <v>3910</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2004" s="2" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B2004" s="2" t="s">
+        <v>3922</v>
       </c>
     </row>
   </sheetData>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BDC2EA-442E-47CF-BC4F-0BC16BCA1384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292FEE40-2BE7-44CC-B3BD-C8C7546959E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11925" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_data" sheetId="1" r:id="rId1"/>
@@ -12763,8 +12763,8 @@
   <dimension ref="A1:I2016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1342" sqref="B1342"/>
+      <pane ySplit="1" topLeftCell="A1669" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1678" sqref="D1678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\anp-website\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692A454-22A5-4DAF-8A68-06FB6F0F9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F480EBF0-295F-46A4-8419-10E24F99DDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="5477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7161" uniqueCount="5497">
   <si>
     <t>english</t>
   </si>
@@ -16505,6 +16505,66 @@
   </si>
   <si>
     <t>酵母</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>magnetic flux</t>
+  </si>
+  <si>
+    <t>磁束</t>
+  </si>
+  <si>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>mitudo</t>
+  </si>
+  <si>
+    <t>magutaba</t>
+  </si>
+  <si>
+    <t>luminous flux</t>
+  </si>
+  <si>
+    <t>光束</t>
+  </si>
+  <si>
+    <t>zûtaba</t>
+  </si>
+  <si>
+    <t>zu^taba</t>
+  </si>
+  <si>
+    <t>磁化</t>
+  </si>
+  <si>
+    <t>magnetization</t>
+  </si>
+  <si>
+    <t>共栄</t>
+  </si>
+  <si>
+    <t>co-prosperity</t>
+  </si>
+  <si>
+    <t>maguchen</t>
+  </si>
+  <si>
+    <t>tanawi</t>
+  </si>
+  <si>
+    <t>magucen</t>
+  </si>
+  <si>
+    <t>tannaku</t>
+  </si>
+  <si>
+    <t>hara</t>
+  </si>
+  <si>
+    <t>xitukak</t>
   </si>
 </sst>
 </file>
@@ -17565,11 +17625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3139"/>
+  <dimension ref="A1:L3144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3070" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3078" sqref="H3078"/>
+      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B738" sqref="B738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26261,6 +26321,9 @@
       <c r="B797" s="1" t="s">
         <v>685</v>
       </c>
+      <c r="C797" s="1" t="s">
+        <v>5496</v>
+      </c>
       <c r="E797" s="1" t="s">
         <v>64</v>
       </c>
@@ -47243,6 +47306,12 @@
       <c r="A3042" s="8" t="s">
         <v>4099</v>
       </c>
+      <c r="B3042" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H3042" s="1" t="s">
+        <v>4690</v>
+      </c>
     </row>
     <row r="3043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3043" s="8" t="s">
@@ -47429,6 +47498,9 @@
       <c r="F3057" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H3057" s="1" t="s">
+        <v>4690</v>
+      </c>
     </row>
     <row r="3058" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3058" s="15" t="s">
@@ -48468,6 +48540,12 @@
       <c r="A3119" s="1" t="s">
         <v>5344</v>
       </c>
+      <c r="B3119" s="1" t="s">
+        <v>5494</v>
+      </c>
+      <c r="C3119" s="1" t="s">
+        <v>5494</v>
+      </c>
       <c r="E3119" s="1" t="s">
         <v>10</v>
       </c>
@@ -48879,6 +48957,106 @@
       </c>
       <c r="H3139" s="1" t="s">
         <v>5472</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3140" s="1" t="s">
+        <v>5477</v>
+      </c>
+      <c r="B3140" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="C3140" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="E3140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3140" s="1" t="s">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3141" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B3141" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C3141" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="E3141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3141" s="1" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3142" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="B3142" s="1" t="s">
+        <v>5485</v>
+      </c>
+      <c r="C3142" s="1" t="s">
+        <v>5486</v>
+      </c>
+      <c r="E3142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3142" s="1" t="s">
+        <v>5484</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3143" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="B3143" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="C3143" s="1" t="s">
+        <v>5493</v>
+      </c>
+      <c r="E3143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3143" s="1" t="s">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3144" s="1" t="s">
+        <v>5490</v>
+      </c>
+      <c r="B3144" s="1" t="s">
+        <v>5492</v>
+      </c>
+      <c r="C3144" s="1" t="s">
+        <v>5492</v>
+      </c>
+      <c r="E3144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3144" s="1" t="s">
+        <v>5489</v>
       </c>
     </row>
   </sheetData>
@@ -48886,7 +49064,7 @@
     <sortCondition ref="A2:A3098"/>
   </sortState>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="B5110:B1048576 B2039:B2085 B356:B2025 B2087:B2097 B2099:B2105 B1:B354">
+  <conditionalFormatting sqref="B5110:B1048576 B2039:B2085 B356:B2025 B2087:B2097 B2099:B2105 B1:B354 C797">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B355">
@@ -48915,7 +49093,7 @@
   <conditionalFormatting sqref="A3097:A1048576 A2106:A3095 A1:A2104">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3105 B1:B1048576">
+  <conditionalFormatting sqref="C3105 B1:B1048576 C797">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3097:A1048576 A3077:A3095 A2039:A2104 A1:A2025">

--- a/data/word_data.xlsx
+++ b/data/word_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\alexandpedro.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E347515-2115-4C70-BE5F-ED2647A5B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F352AE-6A57-4DFD-AEA3-F913E2789F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35521651-FEDE-417C-B128-8278F1D47736}"/>
   </bookViews>
